--- a/Kurasik/doc/Strefy.xlsx
+++ b/Kurasik/doc/Strefy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="180">
   <si>
     <t>ID</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Zewnętrzne</t>
   </si>
   <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>Schody dół</t>
-  </si>
-  <si>
     <t>1.01</t>
   </si>
   <si>
@@ -97,114 +91,30 @@
     <t>1.18</t>
   </si>
   <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.21</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>Wiatrołap</t>
-  </si>
-  <si>
-    <t>Garderoba mała</t>
-  </si>
-  <si>
     <t>Pralnia</t>
   </si>
   <si>
-    <t>Garderoba duża</t>
-  </si>
-  <si>
-    <t>Przedpokój A</t>
-  </si>
-  <si>
     <t>Sypialnia Andrzej</t>
   </si>
   <si>
-    <t>Łazienka</t>
-  </si>
-  <si>
     <t>Sypialnia Ewa</t>
   </si>
   <si>
-    <t>Przedpokój B</t>
-  </si>
-  <si>
-    <t>Komunikacja 1</t>
-  </si>
-  <si>
-    <t>Spiżarnia</t>
-  </si>
-  <si>
     <t>Kuchnia</t>
   </si>
   <si>
-    <t>Jadalnia</t>
-  </si>
-  <si>
     <t>Salon</t>
   </si>
   <si>
     <t>Oranżeria</t>
   </si>
   <si>
-    <t>Komunikacja 2</t>
-  </si>
-  <si>
-    <t>Korytarz 1</t>
-  </si>
-  <si>
-    <t>Grota Solna</t>
-  </si>
-  <si>
-    <t>Sauna</t>
-  </si>
-  <si>
-    <t>WC</t>
-  </si>
-  <si>
-    <t>Basen</t>
-  </si>
-  <si>
     <t>Siłownia</t>
   </si>
   <si>
     <t>Kotłownia</t>
   </si>
   <si>
-    <t>Kominukacja 3</t>
-  </si>
-  <si>
-    <t>Toaleta</t>
-  </si>
-  <si>
     <t>Hobby Kuchnia</t>
   </si>
   <si>
@@ -217,9 +127,6 @@
     <t>Parter</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>2.01</t>
   </si>
   <si>
@@ -238,12 +145,6 @@
     <t>2.06</t>
   </si>
   <si>
-    <t>Schody Góra</t>
-  </si>
-  <si>
-    <t>Korytarz</t>
-  </si>
-  <si>
     <t>Salon Ola</t>
   </si>
   <si>
@@ -262,24 +163,12 @@
     <t>Piętro</t>
   </si>
   <si>
-    <t>1.30</t>
-  </si>
-  <si>
     <t>Garaż</t>
   </si>
   <si>
-    <t>1.31</t>
-  </si>
-  <si>
     <t>Dyżurka</t>
   </si>
   <si>
-    <t>Winiarnia</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
     <t>3.01</t>
   </si>
   <si>
@@ -298,30 +187,12 @@
     <t>???</t>
   </si>
   <si>
-    <t>Wschód</t>
-  </si>
-  <si>
-    <t>Zachód</t>
-  </si>
-  <si>
-    <t>Południe (Ogród)</t>
-  </si>
-  <si>
     <t>1_2_6, 2_2_1, 2_2_3</t>
   </si>
   <si>
-    <t>136, 137, 138, 139, 148, 158, 159, 160</t>
-  </si>
-  <si>
-    <t>149, 150, 151, 152, 153, 154, 155, 157</t>
-  </si>
-  <si>
     <t>1_2_5, 2_2_2</t>
   </si>
   <si>
-    <t>140, 141, 142, 143, 144, 145</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -334,9 +205,6 @@
     <t>2_1_3</t>
   </si>
   <si>
-    <t>028, 203</t>
-  </si>
-  <si>
     <t>2_1_0</t>
   </si>
   <si>
@@ -346,27 +214,15 @@
     <t>2_1_1</t>
   </si>
   <si>
-    <t>031, 210</t>
-  </si>
-  <si>
     <t>2_1_2</t>
   </si>
   <si>
-    <t>032, 033</t>
-  </si>
-  <si>
-    <t>046, 045</t>
-  </si>
-  <si>
     <t>048, 202</t>
   </si>
   <si>
     <t>2_1_8, 2_1_9, 2_1_13</t>
   </si>
   <si>
-    <t>2_1_9</t>
-  </si>
-  <si>
     <t>2_1_10, 2_1_11, 2_1_12, 2_1_14, 2_1_15</t>
   </si>
   <si>
@@ -376,54 +232,15 @@
     <t>1_2_4</t>
   </si>
   <si>
-    <t>1_1_0</t>
-  </si>
-  <si>
-    <t>Przedsionek sauny</t>
-  </si>
-  <si>
-    <t>096</t>
-  </si>
-  <si>
     <t>034</t>
   </si>
   <si>
-    <t>047</t>
-  </si>
-  <si>
-    <t>075, 079, 083</t>
-  </si>
-  <si>
-    <t>1_1_2</t>
-  </si>
-  <si>
-    <t>071, 072</t>
-  </si>
-  <si>
-    <t>074</t>
-  </si>
-  <si>
-    <t>069</t>
-  </si>
-  <si>
-    <t>076, 077, 078, 206</t>
-  </si>
-  <si>
     <t>1_1_1, 1_1_3</t>
   </si>
   <si>
-    <t>080, 082</t>
-  </si>
-  <si>
     <t>081, 089</t>
   </si>
   <si>
-    <t>099, 101, 207</t>
-  </si>
-  <si>
-    <t>1_2_0</t>
-  </si>
-  <si>
     <t>102, 208</t>
   </si>
   <si>
@@ -445,9 +262,6 @@
     <t>213</t>
   </si>
   <si>
-    <t>211, 212</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -469,9 +283,6 @@
     <t>2_1_6, 2_1_7</t>
   </si>
   <si>
-    <t>014, 015</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -511,9 +322,6 @@
     <t>022</t>
   </si>
   <si>
-    <t>025, 026</t>
-  </si>
-  <si>
     <t>042</t>
   </si>
   <si>
@@ -538,12 +346,6 @@
     <t>BRAK</t>
   </si>
   <si>
-    <t>063</t>
-  </si>
-  <si>
-    <t>062</t>
-  </si>
-  <si>
     <t>061</t>
   </si>
   <si>
@@ -559,33 +361,21 @@
     <t>123</t>
   </si>
   <si>
-    <t>128</t>
-  </si>
-  <si>
     <t>064, 067, 301</t>
   </si>
   <si>
-    <t>067, 301</t>
-  </si>
-  <si>
     <t>065, 068</t>
   </si>
   <si>
     <t>117</t>
   </si>
   <si>
-    <t>303</t>
-  </si>
-  <si>
     <t>129, 131</t>
   </si>
   <si>
     <t>130</t>
   </si>
   <si>
-    <t>302</t>
-  </si>
-  <si>
     <t>118</t>
   </si>
   <si>
@@ -640,12 +430,6 @@
     <t>okn_112, drz_111</t>
   </si>
   <si>
-    <t>sterowanie</t>
-  </si>
-  <si>
-    <t>Pokrywa, Antyfala, Łóżko</t>
-  </si>
-  <si>
     <t>Osuszacz</t>
   </si>
   <si>
@@ -671,6 +455,105 @@
   </si>
   <si>
     <t>KOD</t>
+  </si>
+  <si>
+    <t>Wjazd</t>
+  </si>
+  <si>
+    <t>Staw</t>
+  </si>
+  <si>
+    <t>Ogród</t>
+  </si>
+  <si>
+    <t>Wejście</t>
+  </si>
+  <si>
+    <t>062, 063, 128</t>
+  </si>
+  <si>
+    <t>Garderoba</t>
+  </si>
+  <si>
+    <t>Komunikacja</t>
+  </si>
+  <si>
+    <t>1_1_0, 1_1_2, 1_2_0</t>
+  </si>
+  <si>
+    <t>302, 303</t>
+  </si>
+  <si>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>Sauna, Grota, Pokrywa, Antyfala, Łóżko</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>136, 138, 139</t>
+  </si>
+  <si>
+    <t>Pompka</t>
+  </si>
+  <si>
+    <t>Poziom szamba, Promiennik 1, Promiennik 2</t>
+  </si>
+  <si>
+    <t>141, 142, 143, 144, 145</t>
+  </si>
+  <si>
+    <t>Łazienka Sypialnie</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>069, 071, 072, 074, 076, 078, 206</t>
+  </si>
+  <si>
+    <t>079, 080, 082</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Korytarz Ola</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>045, 046, 047, 204</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>014, 015, 032, 033, 075, 083, 096, 099, 101, 207</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>151, 152,  155, 157, 159, 160</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -709,7 +592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -745,11 +628,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -827,6 +747,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,26 +1083,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="1" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="0.85546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" style="19" customWidth="1"/>
     <col min="15" max="15" width="19" style="19" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1159,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -1169,49 +1123,49 @@
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="7" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>172</v>
+        <v>108</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+    <row r="2" spans="1:23" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="14"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="29"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -1221,7 +1175,7 @@
       <c r="V2" s="6"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1229,23 +1183,23 @@
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="14">
-        <v>8</v>
+      <c r="F3" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="H3" s="14">
         <v>3</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="J3" s="14">
         <v>1</v>
@@ -1253,12 +1207,12 @@
       <c r="K3" s="14">
         <v>134</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="M3" s="24"/>
+      <c r="L3" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="32"/>
       <c r="N3" s="14" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -1269,7 +1223,7 @@
       <c r="V3" s="6"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1277,21 +1231,21 @@
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="26"/>
+        <v>148</v>
+      </c>
+      <c r="D4" s="36"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="14">
-        <v>8</v>
+      <c r="F4" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="H4" s="14">
         <v>2</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="J4" s="14">
         <v>1</v>
@@ -1299,10 +1253,10 @@
       <c r="K4" s="14">
         <v>135</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="14" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="O4" s="20"/>
       <c r="P4" s="6"/>
@@ -1314,7 +1268,7 @@
       <c r="V4" s="6"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1322,32 +1276,32 @@
         <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="26"/>
+        <v>149</v>
+      </c>
+      <c r="D5" s="36"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="14">
-        <v>6</v>
+      <c r="F5" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="H5" s="14">
         <v>0</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="J5" s="14">
         <v>0</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
+        <v>59</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="14" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="O5" s="20"/>
       <c r="P5" s="6"/>
@@ -1364,38 +1318,41 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>66</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="37"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="14">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="F6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="20"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -1405,44 +1362,46 @@
       <c r="V6" s="6"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="26"/>
+        <v>150</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="14">
-        <v>0</v>
+      <c r="F7" s="23" t="s">
+        <v>175</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="H7" s="14">
         <v>1</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -1453,45 +1412,46 @@
       <c r="V7" s="6"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="34"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="14">
-        <v>0</v>
+      <c r="F8" s="23" t="s">
+        <v>177</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>102</v>
+        <v>176</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>154</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>102</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="25"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -1506,41 +1466,41 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="D9" s="34"/>
       <c r="E9" s="13"/>
       <c r="F9" s="14">
         <v>2</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="H9" s="14">
         <v>0</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" s="25"/>
+        <v>59</v>
+      </c>
+      <c r="O9" s="33"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -1550,46 +1510,46 @@
       <c r="V9" s="6"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="26"/>
+        <v>152</v>
+      </c>
+      <c r="D10" s="34"/>
       <c r="E10" s="13"/>
       <c r="F10" s="14">
         <v>1</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="H10" s="14">
         <v>1</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O10" s="25"/>
+        <v>59</v>
+      </c>
+      <c r="O10" s="33"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
@@ -1604,41 +1564,41 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="D11" s="34"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="14">
-        <v>2</v>
+      <c r="F11" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="G11" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>102</v>
-      </c>
       <c r="N11" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O11" s="25"/>
+        <v>134</v>
+      </c>
+      <c r="O11" s="33"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -1653,41 +1613,41 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="26"/>
+        <v>164</v>
+      </c>
+      <c r="D12" s="34"/>
       <c r="E12" s="13"/>
       <c r="F12" s="14">
         <v>2</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="H12" s="14">
         <v>1</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="O12" s="25"/>
+        <v>132</v>
+      </c>
+      <c r="O12" s="33"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -1702,41 +1662,41 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="26"/>
+        <v>27</v>
+      </c>
+      <c r="D13" s="34"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="14">
-        <v>2</v>
+      <c r="F13" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="H13" s="14">
         <v>1</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="O13" s="25"/>
+        <v>133</v>
+      </c>
+      <c r="O13" s="33"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
@@ -1746,46 +1706,46 @@
       <c r="V13" s="6"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="D14" s="34"/>
       <c r="E14" s="13"/>
       <c r="F14" s="14">
         <v>2</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="H14" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>165</v>
+        <v>68</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="O14" s="25"/>
+        <v>115</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" s="33"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
@@ -1795,46 +1755,46 @@
       <c r="V14" s="6"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="26"/>
+        <v>29</v>
+      </c>
+      <c r="D15" s="34"/>
       <c r="E15" s="13"/>
       <c r="F15" s="14">
-        <v>2</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="G15" s="14">
+        <v>205</v>
       </c>
       <c r="H15" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O15" s="25"/>
+        <v>136</v>
+      </c>
+      <c r="O15" s="33"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
@@ -1849,41 +1809,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="26"/>
+        <v>30</v>
+      </c>
+      <c r="D16" s="34"/>
       <c r="E16" s="13"/>
       <c r="F16" s="14">
         <v>2</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="H16" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" s="25"/>
+        <v>137</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
@@ -1893,46 +1852,46 @@
       <c r="V16" s="6"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="34"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="14">
-        <v>0</v>
+      <c r="F17" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="H17" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O17" s="25"/>
+        <v>157</v>
+      </c>
+      <c r="O17" s="33"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
@@ -1942,46 +1901,46 @@
       <c r="V17" s="6"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="26"/>
+        <v>31</v>
+      </c>
+      <c r="D18" s="34"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="14">
-        <v>2</v>
+      <c r="F18" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="H18" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O18" s="25"/>
+        <v>59</v>
+      </c>
+      <c r="O18" s="33"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -1996,41 +1955,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="26"/>
+        <v>32</v>
+      </c>
+      <c r="D19" s="34"/>
       <c r="E19" s="13"/>
       <c r="F19" s="14">
+        <v>2</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="14">
         <v>0</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1</v>
-      </c>
       <c r="I19" s="14" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="O19" s="25"/>
+        <v>138</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -2040,46 +1998,46 @@
       <c r="V19" s="6"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="D20" s="34"/>
       <c r="E20" s="13"/>
       <c r="F20" s="14">
+        <v>2</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="14">
         <v>1</v>
       </c>
-      <c r="G20" s="14">
-        <v>205</v>
-      </c>
-      <c r="H20" s="14">
-        <v>5</v>
-      </c>
       <c r="I20" s="14" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="O20" s="25"/>
+        <v>59</v>
+      </c>
+      <c r="O20" s="33"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -2089,45 +2047,46 @@
       <c r="V20" s="6"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="D21" s="34"/>
       <c r="E21" s="13"/>
       <c r="F21" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="H21" s="14">
         <v>1</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>207</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="O21" s="33"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -2142,41 +2101,41 @@
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="26"/>
+        <v>35</v>
+      </c>
+      <c r="D22" s="34"/>
       <c r="E22" s="13"/>
       <c r="F22" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="H22" s="14">
         <v>1</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O22" s="25"/>
+        <v>59</v>
+      </c>
+      <c r="O22" s="33"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -2186,46 +2145,45 @@
       <c r="V22" s="6"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="26"/>
+        <v>49</v>
+      </c>
+      <c r="D23" s="34"/>
       <c r="E23" s="13"/>
       <c r="F23" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="H23" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O23" s="25"/>
+        <v>139</v>
+      </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
@@ -2240,41 +2198,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="D24" s="34"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="14">
-        <v>2</v>
+      <c r="F24" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="H24" s="14">
         <v>0</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O24" s="25"/>
+        <v>59</v>
+      </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
@@ -2289,41 +2246,42 @@
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="26"/>
+        <v>172</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>48</v>
+      </c>
       <c r="E25" s="13"/>
       <c r="F25" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="H25" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="N25" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="O25" s="25"/>
+        <v>59</v>
+      </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
@@ -2333,46 +2291,45 @@
       <c r="V25" s="6"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="26"/>
+        <v>43</v>
+      </c>
+      <c r="D26" s="34"/>
       <c r="E26" s="13"/>
       <c r="F26" s="14">
+        <v>3</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="14">
         <v>1</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" s="14">
-        <v>0</v>
-      </c>
       <c r="I26" s="14" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="O26" s="25"/>
+        <v>140</v>
+      </c>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
@@ -2382,46 +2339,45 @@
       <c r="V26" s="6"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="D27" s="34"/>
       <c r="E27" s="13"/>
       <c r="F27" s="14">
         <v>1</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="H27" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="N27" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O27" s="25"/>
+        <v>59</v>
+      </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
@@ -2431,46 +2387,45 @@
       <c r="V27" s="6"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="D28" s="34"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="14">
-        <v>4</v>
+      <c r="F28" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="14">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="N28" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="O28" s="25"/>
+        <v>141</v>
+      </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
@@ -2485,41 +2440,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="26"/>
+        <v>46</v>
+      </c>
+      <c r="D29" s="34"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="14">
-        <v>2</v>
+      <c r="F29" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H29" s="14">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O29" s="25"/>
+        <v>59</v>
+      </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
@@ -2534,39 +2488,39 @@
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="D30" s="34"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="14">
-        <v>2</v>
+      <c r="F30" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H30" s="14">
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
@@ -2577,46 +2531,47 @@
       <c r="V30" s="6"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="26"/>
+        <v>56</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>52</v>
+      </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="14">
-        <v>3</v>
+      <c r="F31" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" s="14">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="N31" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O31" s="25"/>
+        <v>82</v>
+      </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
@@ -2631,39 +2586,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="26"/>
+        <v>56</v>
+      </c>
+      <c r="D32" s="34"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="14">
-        <v>0</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14">
-        <v>0</v>
+      <c r="F32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O32" s="25"/>
+        <v>82</v>
+      </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
@@ -2678,41 +2634,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="26"/>
+        <v>56</v>
+      </c>
+      <c r="D33" s="34"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="14">
-        <v>2</v>
+      <c r="F33" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="H33" s="14">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="N33" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O33" s="25"/>
+        <v>82</v>
+      </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
@@ -2727,41 +2682,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="26"/>
+        <v>56</v>
+      </c>
+      <c r="D34" s="34"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="14">
-        <v>1</v>
+      <c r="F34" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" s="14">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O34" s="25"/>
+        <v>82</v>
+      </c>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
@@ -2772,45 +2726,15 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>33</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14">
-        <v>2</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="14">
-        <v>1</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M35" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="N35" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O35" s="25"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="16"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
@@ -2821,44 +2745,15 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>34</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14">
-        <v>1</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36" s="14">
-        <v>0</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M36" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="N36" s="14" t="s">
-        <v>211</v>
-      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="16"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -2869,44 +2764,15 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <v>35</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14">
-        <v>2</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="H37" s="14">
-        <v>0</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="16"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
@@ -2917,44 +2783,15 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>36</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="K38" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M38" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="N38" s="14" t="s">
-        <v>144</v>
-      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="16"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -2965,46 +2802,15 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>37</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14">
-        <v>2</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H39" s="14">
-        <v>0</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="16"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
@@ -3015,44 +2821,15 @@
       <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>38</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14">
-        <v>1</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H40" s="14">
-        <v>1</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M40" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="16"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
@@ -3062,45 +2839,16 @@
       <c r="V40" s="6"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>39</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14">
-        <v>3</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H41" s="14">
-        <v>1</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M41" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="N41" s="14" t="s">
-        <v>212</v>
-      </c>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="16"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
@@ -3110,664 +2858,145 @@
       <c r="V41" s="6"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <v>40</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14">
-        <v>1</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" s="14">
-        <v>2</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="J42" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="M42" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N42" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>41</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M43" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="N43" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="2"/>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="21"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="21"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <v>42</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M44" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="N44" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="2"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="21"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>43</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L45" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M45" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="N45" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="2"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="21"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
-        <v>44</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="L46" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M46" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="N46" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="2"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="21"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
-        <v>45</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="L47" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M47" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="N47" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="2"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="21"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <v>46</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="L48" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M48" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="N48" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="2"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>47</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="L49" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M49" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="N49" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="2"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="16"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="2"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="16"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="2"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="16"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="2"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="16"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="2"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="16"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="2"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="16"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="2"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="16"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="2"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="21"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="21"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="21"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="21"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="21"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="21"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="21"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="21"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="L3:M5"/>
-    <mergeCell ref="O31:O35"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D38"/>
-    <mergeCell ref="D39:D45"/>
-    <mergeCell ref="O9:O15"/>
-    <mergeCell ref="O16:O20"/>
-    <mergeCell ref="O22:O29"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D7:D24"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="D3:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>